--- a/ASLServer/output.xlsx
+++ b/ASLServer/output.xlsx
@@ -4725,7 +4725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N717"/>
+  <dimension ref="A1:N715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4800,16 +4800,16 @@
         <v>303</v>
       </c>
       <c r="I2" t="n">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="J2" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>
@@ -36189,46 +36189,6 @@
       <c r="N715" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="716" spans="1:14">
-      <c r="A716" s="1" t="n">
-        <v>715</v>
-      </c>
-      <c r="B716" t="s">
-        <v>18</v>
-      </c>
-      <c r="C716" t="s"/>
-      <c r="D716" t="s"/>
-      <c r="E716" t="s"/>
-      <c r="F716" t="s"/>
-      <c r="G716" t="s"/>
-      <c r="H716" t="s"/>
-      <c r="I716" t="s"/>
-      <c r="J716" t="s"/>
-      <c r="K716" t="s"/>
-      <c r="L716" t="s"/>
-      <c r="M716" t="s"/>
-      <c r="N716" t="s"/>
-    </row>
-    <row r="717" spans="1:14">
-      <c r="A717" s="1" t="n">
-        <v>716</v>
-      </c>
-      <c r="B717" t="s">
-        <v>18</v>
-      </c>
-      <c r="C717" t="s"/>
-      <c r="D717" t="s"/>
-      <c r="E717" t="s"/>
-      <c r="F717" t="s"/>
-      <c r="G717" t="s"/>
-      <c r="H717" t="s"/>
-      <c r="I717" t="s"/>
-      <c r="J717" t="s"/>
-      <c r="K717" t="s"/>
-      <c r="L717" t="s"/>
-      <c r="M717" t="s"/>
-      <c r="N717" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ASLServer/output.xlsx
+++ b/ASLServer/output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/ASLServer/output.xlsx
+++ b/ASLServer/output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
